--- a/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
+++ b/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PPEIdtIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF713E-B303-4A8B-9669-55AF9DF85F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="24915" windowHeight="11055"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="PPEIdtIL" sheetId="3" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId2"/>
+    <sheet name="PPEIdtIL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -107,12 +119,42 @@
   </si>
   <si>
     <t>Efficiency Improvement by Building Component (dimensionless)</t>
+  </si>
+  <si>
+    <t>The study says:</t>
+  </si>
+  <si>
+    <t>Average % energy savings</t>
+  </si>
+  <si>
+    <t>Table 2. Costs and benefits of improved appliance labeling</t>
+  </si>
+  <si>
+    <t>Assumes consumer selects products that average 10% energy savings. Difference in energy use from least to most efficient product varies from 10% to 50% depending on product category according to FTC published ranges. We assume most consumers motivated by the label select a product that falls 1-2 categories more efficient (e.g., shift from 1-star to 2- or 3-star product, or from 3-star to 4- or 5-star product, etc.). Source: ACEEE estimate based on labeling research.</t>
+  </si>
+  <si>
+    <t>% of market affected by policy</t>
+  </si>
+  <si>
+    <t>Assumes 20% of consumers are motivated by the improved label and use it to select more efficient products. Source: ACEEE estimate based on prior labeling research</t>
+  </si>
+  <si>
+    <t>Question for EI</t>
+  </si>
+  <si>
+    <t>does this mean that the numbers in this spreadsheet should be 2% (10% * 20%)?</t>
+  </si>
+  <si>
+    <t>right now they are 10%.</t>
+  </si>
+  <si>
+    <t>*Anwer from EI: yes, this was an error.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,6 +221,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -274,6 +333,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,6 +385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD30"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +686,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -601,13 +694,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C939B72-E84A-40B9-8734-86EF1F88D13D}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:M10"/>
+    <mergeCell ref="A13:M14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -636,14 +1044,14 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="C2">
         <f>B2</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,14 +1059,14 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C7" si="0">B3</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,14 +1104,14 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
+++ b/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\PPEIdtIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF713E-B303-4A8B-9669-55AF9DF85F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="24915" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId2"/>
-    <sheet name="PPEIdtIL" sheetId="3" r:id="rId3"/>
+    <sheet name="PPEIdtIL" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -119,42 +107,12 @@
   </si>
   <si>
     <t>Efficiency Improvement by Building Component (dimensionless)</t>
-  </si>
-  <si>
-    <t>The study says:</t>
-  </si>
-  <si>
-    <t>Average % energy savings</t>
-  </si>
-  <si>
-    <t>Table 2. Costs and benefits of improved appliance labeling</t>
-  </si>
-  <si>
-    <t>Assumes consumer selects products that average 10% energy savings. Difference in energy use from least to most efficient product varies from 10% to 50% depending on product category according to FTC published ranges. We assume most consumers motivated by the label select a product that falls 1-2 categories more efficient (e.g., shift from 1-star to 2- or 3-star product, or from 3-star to 4- or 5-star product, etc.). Source: ACEEE estimate based on labeling research.</t>
-  </si>
-  <si>
-    <t>% of market affected by policy</t>
-  </si>
-  <si>
-    <t>Assumes 20% of consumers are motivated by the improved label and use it to select more efficient products. Source: ACEEE estimate based on prior labeling research</t>
-  </si>
-  <si>
-    <t>Question for EI</t>
-  </si>
-  <si>
-    <t>does this mean that the numbers in this spreadsheet should be 2% (10% * 20%)?</t>
-  </si>
-  <si>
-    <t>right now they are 10%.</t>
-  </si>
-  <si>
-    <t>*Anwer from EI: yes, this was an error.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,23 +179,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -333,23 +274,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -385,23 +309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +593,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -694,327 +601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C939B72-E84A-40B9-8734-86EF1F88D13D}">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:M10"/>
-    <mergeCell ref="A13:M14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
+++ b/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\PPEIdtIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF713E-B303-4A8B-9669-55AF9DF85F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="24915" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="PPEIdtIL" sheetId="3" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId2"/>
+    <sheet name="PPEIdtIL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
@@ -107,12 +119,42 @@
   </si>
   <si>
     <t>Efficiency Improvement by Building Component (dimensionless)</t>
+  </si>
+  <si>
+    <t>The study says:</t>
+  </si>
+  <si>
+    <t>Average % energy savings</t>
+  </si>
+  <si>
+    <t>Table 2. Costs and benefits of improved appliance labeling</t>
+  </si>
+  <si>
+    <t>Assumes consumer selects products that average 10% energy savings. Difference in energy use from least to most efficient product varies from 10% to 50% depending on product category according to FTC published ranges. We assume most consumers motivated by the label select a product that falls 1-2 categories more efficient (e.g., shift from 1-star to 2- or 3-star product, or from 3-star to 4- or 5-star product, etc.). Source: ACEEE estimate based on labeling research.</t>
+  </si>
+  <si>
+    <t>% of market affected by policy</t>
+  </si>
+  <si>
+    <t>Assumes 20% of consumers are motivated by the improved label and use it to select more efficient products. Source: ACEEE estimate based on prior labeling research</t>
+  </si>
+  <si>
+    <t>Question for EI</t>
+  </si>
+  <si>
+    <t>does this mean that the numbers in this spreadsheet should be 2% (10% * 20%)?</t>
+  </si>
+  <si>
+    <t>right now they are 10%.</t>
+  </si>
+  <si>
+    <t>*Anwer from EI: yes, this was an error.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,6 +221,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -274,6 +333,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,6 +385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +686,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -601,14 +694,327 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C939B72-E84A-40B9-8734-86EF1F88D13D}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:M10"/>
+    <mergeCell ref="A13:M14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
+++ b/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PPEIdtIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF713E-B303-4A8B-9669-55AF9DF85F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4993BD26-7897-44B1-A56A-54506182211F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId2"/>
-    <sheet name="PPEIdtIL" sheetId="3" r:id="rId3"/>
+    <sheet name="PPEIdtIL" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -119,36 +119,6 @@
   </si>
   <si>
     <t>Efficiency Improvement by Building Component (dimensionless)</t>
-  </si>
-  <si>
-    <t>The study says:</t>
-  </si>
-  <si>
-    <t>Average % energy savings</t>
-  </si>
-  <si>
-    <t>Table 2. Costs and benefits of improved appliance labeling</t>
-  </si>
-  <si>
-    <t>Assumes consumer selects products that average 10% energy savings. Difference in energy use from least to most efficient product varies from 10% to 50% depending on product category according to FTC published ranges. We assume most consumers motivated by the label select a product that falls 1-2 categories more efficient (e.g., shift from 1-star to 2- or 3-star product, or from 3-star to 4- or 5-star product, etc.). Source: ACEEE estimate based on labeling research.</t>
-  </si>
-  <si>
-    <t>% of market affected by policy</t>
-  </si>
-  <si>
-    <t>Assumes 20% of consumers are motivated by the improved label and use it to select more efficient products. Source: ACEEE estimate based on prior labeling research</t>
-  </si>
-  <si>
-    <t>Question for EI</t>
-  </si>
-  <si>
-    <t>does this mean that the numbers in this spreadsheet should be 2% (10% * 20%)?</t>
-  </si>
-  <si>
-    <t>right now they are 10%.</t>
-  </si>
-  <si>
-    <t>*Anwer from EI: yes, this was an error.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,23 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,18 +533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,87 +552,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -694,338 +647,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C939B72-E84A-40B9-8734-86EF1F88D13D}">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:M10"/>
-    <mergeCell ref="A13:M14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +694,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +709,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +754,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
+++ b/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\PPEIdtIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4993BD26-7897-44B1-A56A-54506182211F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="24915" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PPEIdtIL" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -124,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,23 +274,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -338,23 +309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,21 +484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,94 +506,94 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -647,25 +601,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -679,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -694,7 +648,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -709,7 +663,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -724,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -739,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -754,7 +708,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
